--- a/Categories 3-4.xlsx
+++ b/Categories 3-4.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Question</t>
   </si>
@@ -477,6 +477,152 @@
   </si>
   <si>
     <t>https://stackoverflow.com/questions/40179427/is-there-a-way-in-python-to-show-how-a-line-is-interpreted</t>
+  </si>
+  <si>
+    <t>How does Python interpret backslash in string?</t>
+  </si>
+  <si>
+    <t>Unlike Standard C, all unrecognized escape sequences are left in the string unchanged, i.e., the backslash is left in the result. (This behavior is useful when debugging: if an escape sequence is mistyped, the resulting output is more easily recognized as broken.)</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/58254234/how-does-python-interpret-backslash-in-string</t>
+  </si>
+  <si>
+    <t>How does Python interpret this conditional?                                                                                                                                                                                                                                                                      elif answer &gt;= "k":</t>
+  </si>
+  <si>
+    <t>Because in general, Python sequences (strings included) implement lexicographical ordering for their elements. So first element 0 is compared, if the same then element 1, etc.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/8775467/how-does-python-interpret-this-conditional</t>
+  </si>
+  <si>
+    <t>How does python interpret operator precedence work with double comparisons?</t>
+  </si>
+  <si>
+    <t>This is a chained comparison. It's actually treated as (-3 &lt; -2) and (-2 &lt; -1) except that -2 is evaluated at most once.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/42821002/how-does-python-operator-precedence-work-with-double-comparisons</t>
+  </si>
+  <si>
+    <t>How can I change what python interprets as a integer?</t>
+  </si>
+  <si>
+    <t>Anything is possible when you smell like Old Spice and use Python's language services to generate a AST.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/4320534/how-can-i-change-what-python-interprets-as-a-integer</t>
+  </si>
+  <si>
+    <t>How does python interpret numbers with leading zeroes</t>
+  </si>
+  <si>
+    <t>If a number starts with 0, it is interpreted as octal, or base 8.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/13431324/how-does-python-interpret-numbers-with-leading-zeroes</t>
+  </si>
+  <si>
+    <t>How do I tell Python not to interpret backslashes in strings?</t>
+  </si>
+  <si>
+    <t>strings prefixed with R or r are interpreted as raw strings, escape characters are not processed.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/23763365/how-do-i-tell-python-not-to-interpret-backslashes-in-strings</t>
+  </si>
+  <si>
+    <t>How does decoding in UTF-8 interpret the byte boundaries?</t>
+  </si>
+  <si>
+    <t>The byte boundaries are easily determined from the bit patterns. If a byte starts with 0, it is a regular ASCII character. If a byte starts with 10, it is part of a UTF-8 sequence (not the first character).</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/24113496/how-does-decoding-in-utf-8-know-the-byte-boundaries</t>
+  </si>
+  <si>
+    <t>for &lt;expr&gt; in &lt;iterable&gt; takes an iterable object, something that can produce elements, one after another. 
+&lt;expr&gt; [not] in &lt;expr&gt; only requires that the right-hand expression result supports membership testing, but Python will fall back to iteration if no explicit hooks are available for a membership test. The not in not in simply inverts the result of the in operation.</t>
+  </si>
+  <si>
+    <t>How does python interpret the “in” and “not in” statements</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/45707721/how-does-the-in-and-not-in-statement-work-in-python</t>
+  </si>
+  <si>
+    <t>How to get Web-based Python interpretations with explanations</t>
+  </si>
+  <si>
+    <t>The Online Python Tutor is probably what you want.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/8205330/web-based-python-interpreter-with-explanations</t>
+  </si>
+  <si>
+    <t>When you use :python it will use the version vim was built with. However, the syntax :!commandname will use the usual shell command search rules to execute commandname,hence :!python depends on which version you have installed.</t>
+  </si>
+  <si>
+    <t>How can I tell Vim what version of python to use to interpret my programs</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25730927/does-vim-need-to-be-compiled-with-python-3-4-1-to-run-files-through-python-3-4-1</t>
+  </si>
+  <si>
+    <t>How does Python read and interpret source files?</t>
+  </si>
+  <si>
+    <t>Python loads the main script into memory, compiles it into bytecode and runs that. If you modify the source file in the meantime, you're not affecting the bytecode. If you're running the script as the main script (i. e. by calling it like python myfile.py, then the bytecode will be discarded when the script exits. If you're importing the script, however, then the bytecode will be written to disk as a .pyc file which won't be recompiled when imported again, unless you modify the corresponding .py file.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/25189859/how-does-python-read-and-interpret-source-files</t>
+  </si>
+  <si>
+    <t>How is hex function interpreted in python 3?</t>
+  </si>
+  <si>
+    <t>In Python 3, hex looks for an __index__ function that returns an integer. You cannot use hex to print an arbitrary string.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/42586397/python-3-generates-error-vs-python-2-using-decorator</t>
+  </si>
+  <si>
+    <t>For tuple assignments, Python uses the stack structure directly. In python, assignments in a target list on the left-hand side are done from left to right.</t>
+  </si>
+  <si>
+    <t>How does Python interpret or implement tuple assignments like a,b = b,a</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/51999353/a-b-b-a-in-python-vs-stdswap-in-c</t>
+  </si>
+  <si>
+    <t>How can I exactly interpret code in apache(using xampp) and show it in browser.</t>
+  </si>
+  <si>
+    <t>use flask</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/31730795/running-python-scripts-on-local-host</t>
+  </si>
+  <si>
+    <t>Is there a way to call static methods from within a class while declaring it? How python interpretor handles such declarations?</t>
+  </si>
+  <si>
+    <t>The staticmethod is a descriptor. A descriptor exposes the __get__(instance, cls) method allowing it to be accessed either through an instance or at the class level.</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/45529384/python-how-to-call-static-method-from-inside-of-a-class-body</t>
+  </si>
+  <si>
+    <t>How to force code to be interpreted using python 2.x not 3.x</t>
+  </si>
+  <si>
+    <t>Upgrade Python 3.2 to 3.3 or later and use the Python Launcher for Windows. At the top of each Python 2 program, include the following line:
+#!/usr/bin/env python2</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/8631253/using-older-python-2-x-while-having-both-python-2-x-and-3-x-installed-on-windows</t>
   </si>
 </sst>
 </file>
@@ -806,10 +952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1489,230 @@
         <v>114</v>
       </c>
       <c r="D38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D54">
         <v>4</v>
       </c>
     </row>
@@ -1385,12 +1755,37 @@
     <hyperlink ref="C36" r:id="rId35"/>
     <hyperlink ref="C37" r:id="rId36"/>
     <hyperlink ref="C38" r:id="rId37"/>
+    <hyperlink ref="C39" r:id="rId38"/>
+    <hyperlink ref="C40" r:id="rId39"/>
+    <hyperlink ref="C41" r:id="rId40"/>
+    <hyperlink ref="C42" r:id="rId41"/>
+    <hyperlink ref="C43" r:id="rId42"/>
+    <hyperlink ref="C44" r:id="rId43"/>
+    <hyperlink ref="C45" r:id="rId44"/>
+    <hyperlink ref="C46" r:id="rId45"/>
+    <hyperlink ref="C47" r:id="rId46"/>
+    <hyperlink ref="C48" r:id="rId47"/>
+    <hyperlink ref="C49" r:id="rId48"/>
+    <hyperlink ref="C50" r:id="rId49"/>
+    <hyperlink ref="C51" r:id="rId50"/>
+    <hyperlink ref="C52" r:id="rId51"/>
+    <hyperlink ref="C53" r:id="rId52"/>
+    <hyperlink ref="C54" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000A8069CAB006284BBC55BEF4B7EC0F02" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1ff0de79e903ab76e4e1716eb8c8bc53">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="8135e74e-55a3-429d-b75d-0542986ae594" xmlns:ns4="a1d574d3-765c-4fde-a190-455d52aac20a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5a92f0224e1c1327b8e29b821cf66633" ns3:_="" ns4:_="">
     <xsd:import namespace="8135e74e-55a3-429d-b75d-0542986ae594"/>
@@ -1593,15 +1988,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1609,6 +1995,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B1EDDB5-BBD1-48CF-9327-BC610160D97A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92459FCD-17A4-4127-9D79-A434669DCF96}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1623,14 +2017,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B1EDDB5-BBD1-48CF-9327-BC610160D97A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
